--- a/result/21_pred.xlsx
+++ b/result/21_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>523661.04915</v>
+        <v>523656.54915</v>
       </c>
       <c r="B18" t="n">
         <v>387373.6835</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>523571.04915</v>
+        <v>523572.54915</v>
       </c>
       <c r="B19" t="n">
         <v>387373.6835</v>
@@ -591,31 +591,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>523646.04915</v>
+        <v>523560.54915</v>
       </c>
       <c r="B20" t="n">
-        <v>387373.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>523556.04915</v>
+        <v>523560.54915</v>
       </c>
       <c r="B21" t="n">
-        <v>387373.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>523661.04915</v>
+        <v>523632.54915</v>
       </c>
       <c r="B22" t="n">
-        <v>387358.6835</v>
+        <v>387373.6835</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>523586.04915</v>
+        <v>523596.54915</v>
       </c>
       <c r="B23" t="n">
         <v>387373.6835</v>
@@ -623,31 +623,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>523661.04915</v>
+        <v>523668.54915</v>
       </c>
       <c r="B24" t="n">
-        <v>387388.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>523563.54915</v>
+        <v>523668.54915</v>
       </c>
       <c r="B25" t="n">
-        <v>387358.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>523563.54915</v>
+        <v>523548.54915</v>
       </c>
       <c r="B26" t="n">
-        <v>387388.6835</v>
+        <v>387373.6835</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>523676.04915</v>
+        <v>523680.54915</v>
       </c>
       <c r="B27" t="n">
         <v>387373.6835</v>
@@ -655,794 +655,514 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>523631.04915</v>
+        <v>523644.54915</v>
       </c>
       <c r="B28" t="n">
-        <v>387373.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>523601.04915</v>
+        <v>523656.54915</v>
       </c>
       <c r="B29" t="n">
-        <v>387373.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>523616.04915</v>
+        <v>523584.54915</v>
       </c>
       <c r="B30" t="n">
-        <v>387373.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>523563.54915</v>
+        <v>523644.54915</v>
       </c>
       <c r="B31" t="n">
-        <v>387343.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>523563.54915</v>
+        <v>523656.54915</v>
       </c>
       <c r="B32" t="n">
-        <v>387403.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>523578.54915</v>
+        <v>523584.54915</v>
       </c>
       <c r="B33" t="n">
-        <v>387358.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>523661.04915</v>
+        <v>523572.54915</v>
       </c>
       <c r="B34" t="n">
-        <v>387343.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>523578.54915</v>
+        <v>523572.54915</v>
       </c>
       <c r="B35" t="n">
-        <v>387388.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>523646.04915</v>
+        <v>523560.54915</v>
       </c>
       <c r="B36" t="n">
-        <v>387358.6835</v>
+        <v>387337.6835</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>523661.04915</v>
+        <v>523560.54915</v>
       </c>
       <c r="B37" t="n">
-        <v>387403.6835</v>
+        <v>387409.6835</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>523646.04915</v>
+        <v>523668.54915</v>
       </c>
       <c r="B38" t="n">
-        <v>387388.6835</v>
+        <v>387337.6835</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>523676.04915</v>
+        <v>523668.54915</v>
       </c>
       <c r="B39" t="n">
-        <v>387358.6835</v>
+        <v>387409.6835</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>523541.04915</v>
+        <v>523620.54915</v>
       </c>
       <c r="B40" t="n">
-        <v>387373.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>523676.04915</v>
+        <v>523620.54915</v>
       </c>
       <c r="B41" t="n">
-        <v>387388.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>523563.54915</v>
+        <v>523548.54915</v>
       </c>
       <c r="B42" t="n">
-        <v>387328.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>523563.54915</v>
+        <v>523548.54915</v>
       </c>
       <c r="B43" t="n">
-        <v>387418.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>523548.54915</v>
+        <v>523536.54915</v>
       </c>
       <c r="B44" t="n">
-        <v>387358.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>523548.54915</v>
+        <v>523656.54915</v>
       </c>
       <c r="B45" t="n">
-        <v>387388.6835</v>
+        <v>387325.6835</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>523668.54915</v>
+        <v>523656.54915</v>
       </c>
       <c r="B46" t="n">
-        <v>387426.1835</v>
+        <v>387421.6835</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>523668.54915</v>
+        <v>523680.54915</v>
       </c>
       <c r="B47" t="n">
-        <v>387321.1835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>523563.54915</v>
+        <v>523536.54915</v>
       </c>
       <c r="B48" t="n">
-        <v>387433.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>523563.54915</v>
+        <v>523680.54915</v>
       </c>
       <c r="B49" t="n">
-        <v>387313.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>523593.54915</v>
+        <v>523692.54915</v>
       </c>
       <c r="B50" t="n">
-        <v>387358.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>523631.04915</v>
+        <v>523572.54915</v>
       </c>
       <c r="B51" t="n">
-        <v>387358.6835</v>
+        <v>387325.6835</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>523593.54915</v>
+        <v>523692.54915</v>
       </c>
       <c r="B52" t="n">
-        <v>387388.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>523691.04915</v>
+        <v>523572.54915</v>
       </c>
       <c r="B53" t="n">
-        <v>387366.1835</v>
+        <v>387421.6835</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>523631.04915</v>
+        <v>523632.54915</v>
       </c>
       <c r="B54" t="n">
-        <v>387388.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>523691.04915</v>
+        <v>523548.54915</v>
       </c>
       <c r="B55" t="n">
-        <v>387381.1835</v>
+        <v>387421.6835</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>523578.54915</v>
+        <v>523548.54915</v>
       </c>
       <c r="B56" t="n">
-        <v>387343.6835</v>
+        <v>387325.6835</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>523676.04915</v>
+        <v>523596.54915</v>
       </c>
       <c r="B57" t="n">
-        <v>387343.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>523608.54915</v>
+        <v>523632.54915</v>
       </c>
       <c r="B58" t="n">
-        <v>387358.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>523676.04915</v>
+        <v>523644.54915</v>
       </c>
       <c r="B59" t="n">
-        <v>387403.6835</v>
+        <v>387337.6835</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>523578.54915</v>
+        <v>523596.54915</v>
       </c>
       <c r="B60" t="n">
-        <v>387403.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>523646.04915</v>
+        <v>523644.54915</v>
       </c>
       <c r="B61" t="n">
-        <v>387343.6835</v>
+        <v>387409.6835</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>523608.54915</v>
+        <v>523680.54915</v>
       </c>
       <c r="B62" t="n">
-        <v>387388.6835</v>
+        <v>387421.6835</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>523548.54915</v>
+        <v>523680.54915</v>
       </c>
       <c r="B63" t="n">
-        <v>387343.6835</v>
+        <v>387325.6835</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>523646.04915</v>
+        <v>523584.54915</v>
       </c>
       <c r="B64" t="n">
-        <v>387403.6835</v>
+        <v>387337.6835</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>523548.54915</v>
+        <v>523584.54915</v>
       </c>
       <c r="B65" t="n">
-        <v>387403.6835</v>
+        <v>387409.6835</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>523653.54915</v>
+        <v>523524.54915</v>
       </c>
       <c r="B66" t="n">
-        <v>387328.6835</v>
+        <v>387373.6835</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>523653.54915</v>
+        <v>523704.54915</v>
       </c>
       <c r="B67" t="n">
-        <v>387418.6835</v>
+        <v>387373.6835</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>523533.54915</v>
+        <v>523536.54915</v>
       </c>
       <c r="B68" t="n">
-        <v>387358.6835</v>
+        <v>387337.6835</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>523548.54915</v>
+        <v>523536.54915</v>
       </c>
       <c r="B69" t="n">
-        <v>387426.1835</v>
+        <v>387409.6835</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>523548.54915</v>
+        <v>523692.54915</v>
       </c>
       <c r="B70" t="n">
-        <v>387321.1835</v>
+        <v>387337.6835</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>523653.54915</v>
+        <v>523524.54915</v>
       </c>
       <c r="B71" t="n">
-        <v>387433.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>523653.54915</v>
+        <v>523692.54915</v>
       </c>
       <c r="B72" t="n">
-        <v>387313.6835</v>
+        <v>387409.6835</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>523533.54915</v>
+        <v>523512.54915</v>
       </c>
       <c r="B73" t="n">
-        <v>387388.6835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>523578.54915</v>
+        <v>523524.54915</v>
       </c>
       <c r="B74" t="n">
-        <v>387328.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>523526.04915</v>
+        <v>523704.54915</v>
       </c>
       <c r="B75" t="n">
-        <v>387373.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>523578.54915</v>
+        <v>523512.54915</v>
       </c>
       <c r="B76" t="n">
-        <v>387418.6835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>523691.04915</v>
+        <v>523704.54915</v>
       </c>
       <c r="B77" t="n">
-        <v>387351.1835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>523593.54915</v>
+        <v>523620.54915</v>
       </c>
       <c r="B78" t="n">
-        <v>387343.6835</v>
+        <v>387337.6835</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>523691.04915</v>
+        <v>523716.54915</v>
       </c>
       <c r="B79" t="n">
-        <v>387396.1835</v>
+        <v>387385.6835</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>523683.54915</v>
+        <v>523728.54915</v>
       </c>
       <c r="B80" t="n">
-        <v>387426.1835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>523683.54915</v>
+        <v>523716.54915</v>
       </c>
       <c r="B81" t="n">
-        <v>387321.1835</v>
+        <v>387361.6835</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>523578.54915</v>
+        <v>523500.54915</v>
       </c>
       <c r="B82" t="n">
-        <v>387433.6835</v>
+        <v>387349.6835</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>523578.54915</v>
+        <v>523728.54915</v>
       </c>
       <c r="B83" t="n">
-        <v>387313.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>523631.04915</v>
+        <v>523620.54915</v>
       </c>
       <c r="B84" t="n">
-        <v>387343.6835</v>
+        <v>387409.6835</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>523593.54915</v>
+        <v>523500.54915</v>
       </c>
       <c r="B85" t="n">
-        <v>387403.6835</v>
+        <v>387397.6835</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>523706.04915</v>
+        <v>523632.54915</v>
       </c>
       <c r="B86" t="n">
-        <v>387358.6835</v>
+        <v>387325.6835</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>523631.04915</v>
+        <v>523632.54915</v>
       </c>
       <c r="B87" t="n">
-        <v>387403.6835</v>
+        <v>387421.6835</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>523518.54915</v>
+        <v>523596.54915</v>
       </c>
       <c r="B88" t="n">
-        <v>387358.6835</v>
+        <v>387325.6835</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>523706.04915</v>
+        <v>523596.54915</v>
       </c>
       <c r="B89" t="n">
-        <v>387381.1835</v>
+        <v>387421.6835</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>523518.54915</v>
+        <v>523524.54915</v>
       </c>
       <c r="B90" t="n">
-        <v>387388.6835</v>
+        <v>387421.6835</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>523608.54915</v>
+        <v>523524.54915</v>
       </c>
       <c r="B91" t="n">
-        <v>387343.6835</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>523533.54915</v>
-      </c>
-      <c r="B92" t="n">
-        <v>387343.6835</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>523533.54915</v>
-      </c>
-      <c r="B93" t="n">
-        <v>387403.6835</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>523638.54915</v>
-      </c>
-      <c r="B94" t="n">
-        <v>387328.6835</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>523691.04915</v>
-      </c>
-      <c r="B95" t="n">
-        <v>387336.1835</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>523608.54915</v>
-      </c>
-      <c r="B96" t="n">
-        <v>387403.6835</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>523691.04915</v>
-      </c>
-      <c r="B97" t="n">
-        <v>387411.1835</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>523638.54915</v>
-      </c>
-      <c r="B98" t="n">
-        <v>387418.6835</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>523706.04915</v>
-      </c>
-      <c r="B99" t="n">
-        <v>387396.1835</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>523533.54915</v>
-      </c>
-      <c r="B100" t="n">
-        <v>387426.1835</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>523533.54915</v>
-      </c>
-      <c r="B101" t="n">
-        <v>387321.1835</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>523638.54915</v>
-      </c>
-      <c r="B102" t="n">
-        <v>387433.6835</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>523638.54915</v>
-      </c>
-      <c r="B103" t="n">
-        <v>387313.6835</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>523593.54915</v>
-      </c>
-      <c r="B104" t="n">
-        <v>387328.6835</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>523728.54915</v>
-      </c>
-      <c r="B105" t="n">
-        <v>387396.1835</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>523503.54915</v>
-      </c>
-      <c r="B106" t="n">
-        <v>387351.1835</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>523721.04915</v>
-      </c>
-      <c r="B107" t="n">
-        <v>387351.1835</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>523496.04915</v>
-      </c>
-      <c r="B108" t="n">
-        <v>387396.1835</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>523593.54915</v>
-      </c>
-      <c r="B109" t="n">
-        <v>387418.6835</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>523511.04915</v>
-      </c>
-      <c r="B110" t="n">
-        <v>387373.6835</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>523488.54915</v>
-      </c>
-      <c r="B111" t="n">
-        <v>387351.1835</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>523706.04915</v>
-      </c>
-      <c r="B112" t="n">
-        <v>387343.6835</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>523698.54915</v>
-      </c>
-      <c r="B113" t="n">
-        <v>387426.1835</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>523698.54915</v>
-      </c>
-      <c r="B114" t="n">
-        <v>387321.1835</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>523593.54915</v>
-      </c>
-      <c r="B115" t="n">
-        <v>387433.6835</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>523593.54915</v>
-      </c>
-      <c r="B116" t="n">
-        <v>387313.6835</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>523518.54915</v>
-      </c>
-      <c r="B117" t="n">
-        <v>387343.6835</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>523721.04915</v>
-      </c>
-      <c r="B118" t="n">
-        <v>387381.1835</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>523518.54915</v>
-      </c>
-      <c r="B119" t="n">
-        <v>387403.6835</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>523721.04915</v>
-      </c>
-      <c r="B120" t="n">
-        <v>387366.1835</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>523623.54915</v>
-      </c>
-      <c r="B121" t="n">
-        <v>387328.6835</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>523623.54915</v>
-      </c>
-      <c r="B122" t="n">
-        <v>387418.6835</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>523608.54915</v>
-      </c>
-      <c r="B123" t="n">
-        <v>387328.6835</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>523706.04915</v>
-      </c>
-      <c r="B124" t="n">
-        <v>387411.1835</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>523608.54915</v>
-      </c>
-      <c r="B125" t="n">
-        <v>387418.6835</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>523488.54915</v>
-      </c>
-      <c r="B126" t="n">
-        <v>387433.6835</v>
+        <v>387325.6835</v>
       </c>
     </row>
   </sheetData>
